--- a/src/Tests/Tests.Mockaroo/SampleData/data.xlsx
+++ b/src/Tests/Tests.Mockaroo/SampleData/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Built-In_Data_Types" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -160,12 +169,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Data Type"/>
-    <tableColumn id="2" name="Field"/>
-    <tableColumn id="3" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" name="Data Type" dataDxfId="3"/>
+    <tableColumn id="2" name="Field" dataDxfId="2"/>
+    <tableColumn id="3" name="Value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -247,6 +256,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,17 +480,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -458,165 +501,165 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
